--- a/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1389442F-4E99-4AE4-8451-E480E25CA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{367C4626-0D95-4407-9800-507C9324CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F23FFFF3-6E0C-485A-A352-DC14AA13F23C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F8CEF74-0951-4455-8216-5A0F7D145092}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,70 +104,70 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -176,64 +176,64 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21787A-C775-4DF5-AF48-3AE850F9CE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBFB9BE-E41C-40AE-952C-08AE352C2C3C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367C4626-0D95-4407-9800-507C9324CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{130DC9D9-D1A8-4BA9-ACF8-25C49D806EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F8CEF74-0951-4455-8216-5A0F7D145092}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82E69F5B-0BDF-4AFD-895E-25EAF2FBA31C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBFB9BE-E41C-40AE-952C-08AE352C2C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49C81B-09E7-414C-9696-EC45DD2D48EF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{130DC9D9-D1A8-4BA9-ACF8-25C49D806EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{359E4FAD-2751-428D-A2CF-67CA3AC2AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82E69F5B-0BDF-4AFD-895E-25EAF2FBA31C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C161A794-607C-4B14-9342-E396B88D483F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,70 +104,70 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -176,64 +176,64 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49C81B-09E7-414C-9696-EC45DD2D48EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F382D-8A37-4042-9A50-60B652297A45}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359E4FAD-2751-428D-A2CF-67CA3AC2AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C35D91-7E80-4686-B07F-5F698E4E18C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C161A794-607C-4B14-9342-E396B88D483F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BC8E97E5-EC50-45D9-B3A5-50B7E3C03EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="156">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No viaja en absoluto</t>
@@ -86,157 +86,421 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -651,8 +915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F382D-8A37-4042-9A50-60B652297A45}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561C416C-C2CD-4138-A752-9910A1D935F8}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2129,10 +2393,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>40082</v>
+        <v>8235</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>21</v>
@@ -2144,10 +2408,10 @@
         <v>23</v>
       </c>
       <c r="H34" s="7">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="I34" s="7">
-        <v>97787</v>
+        <v>14897</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>24</v>
@@ -2159,10 +2423,10 @@
         <v>26</v>
       </c>
       <c r="M34" s="7">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="N34" s="7">
-        <v>137870</v>
+        <v>23131</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>27</v>
@@ -2180,10 +2444,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>12386</v>
+        <v>2221</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>30</v>
@@ -2195,10 +2459,10 @@
         <v>32</v>
       </c>
       <c r="H35" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>33769</v>
+        <v>3331</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>33</v>
@@ -2210,10 +2474,10 @@
         <v>35</v>
       </c>
       <c r="M35" s="7">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>46155</v>
+        <v>5551</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -2231,10 +2495,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7">
-        <v>24072</v>
+        <v>5395</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>39</v>
@@ -2246,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="H36" s="7">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I36" s="7">
-        <v>72661</v>
+        <v>14174</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>42</v>
@@ -2261,10 +2525,10 @@
         <v>44</v>
       </c>
       <c r="M36" s="7">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="N36" s="7">
-        <v>96733</v>
+        <v>19569</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>45</v>
@@ -2282,49 +2546,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>31672</v>
+        <v>6614</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>22</v>
+      </c>
+      <c r="I37" s="7">
+        <v>10650</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="7">
-        <v>153</v>
-      </c>
-      <c r="I37" s="7">
-        <v>83410</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>34</v>
+      </c>
+      <c r="N37" s="7">
+        <v>17264</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="7">
-        <v>201</v>
-      </c>
-      <c r="N37" s="7">
-        <v>115082</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2597,49 @@
         <v>15</v>
       </c>
       <c r="C38" s="7">
-        <v>860</v>
+        <v>534</v>
       </c>
       <c r="D38" s="7">
-        <v>587754</v>
+        <v>345701</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>739</v>
+      </c>
+      <c r="I38" s="7">
+        <v>564907</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="7">
-        <v>1173</v>
-      </c>
-      <c r="I38" s="7">
-        <v>736523</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>1273</v>
+      </c>
+      <c r="N38" s="7">
+        <v>910609</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M38" s="7">
-        <v>2033</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1324276</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,102 +2648,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>695966</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="7">
-        <v>1703</v>
+        <v>826</v>
       </c>
       <c r="I39" s="7">
-        <v>1024150</v>
+        <v>607958</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M39" s="7">
-        <v>2729</v>
+        <v>1396</v>
       </c>
       <c r="N39" s="7">
-        <v>1720116</v>
+        <v>976124</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
+        <v>52</v>
+      </c>
+      <c r="D40" s="7">
+        <v>29099</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="7">
-        <v>40082</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="H40" s="7">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="I40" s="7">
-        <v>97787</v>
+        <v>73798</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M40" s="7">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="N40" s="7">
-        <v>137870</v>
+        <v>102896</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,49 +2752,49 @@
         <v>12</v>
       </c>
       <c r="C41" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7">
-        <v>12386</v>
+        <v>9731</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H41" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I41" s="7">
-        <v>33769</v>
+        <v>27029</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M41" s="7">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="N41" s="7">
-        <v>46155</v>
+        <v>36760</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +2803,49 @@
         <v>13</v>
       </c>
       <c r="C42" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D42" s="7">
-        <v>24072</v>
+        <v>17707</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H42" s="7">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I42" s="7">
-        <v>72661</v>
+        <v>51714</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M42" s="7">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="N42" s="7">
-        <v>96733</v>
+        <v>69421</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,49 +2854,49 @@
         <v>14</v>
       </c>
       <c r="C43" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D43" s="7">
-        <v>31672</v>
+        <v>22580</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H43" s="7">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I43" s="7">
-        <v>83410</v>
+        <v>62815</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M43" s="7">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="N43" s="7">
-        <v>115082</v>
+        <v>85394</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,49 +2905,49 @@
         <v>15</v>
       </c>
       <c r="C44" s="7">
-        <v>860</v>
+        <v>326</v>
       </c>
       <c r="D44" s="7">
-        <v>587754</v>
+        <v>202039</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H44" s="7">
-        <v>1173</v>
+        <v>434</v>
       </c>
       <c r="I44" s="7">
-        <v>736523</v>
+        <v>208575</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="M44" s="7">
-        <v>2033</v>
+        <v>760</v>
       </c>
       <c r="N44" s="7">
-        <v>1324276</v>
+        <v>410614</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,63 +2956,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>456</v>
+      </c>
+      <c r="D45" s="7">
+        <v>281155</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="7">
+        <v>877</v>
+      </c>
+      <c r="I45" s="7">
+        <v>423931</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N45" s="7">
+        <v>705086</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>66</v>
+      </c>
+      <c r="D46" s="7">
+        <v>37333</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="7">
+        <v>193</v>
+      </c>
+      <c r="I46" s="7">
+        <v>88694</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" s="7">
+        <v>259</v>
+      </c>
+      <c r="N46" s="7">
+        <v>126027</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>18</v>
+      </c>
+      <c r="D47" s="7">
+        <v>11952</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="7">
+        <v>59</v>
+      </c>
+      <c r="I47" s="7">
+        <v>30360</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="7">
+        <v>77</v>
+      </c>
+      <c r="N47" s="7">
+        <v>42312</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7">
+        <v>34</v>
+      </c>
+      <c r="D48" s="7">
+        <v>23102</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="7">
+        <v>125</v>
+      </c>
+      <c r="I48" s="7">
+        <v>65888</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M48" s="7">
+        <v>159</v>
+      </c>
+      <c r="N48" s="7">
+        <v>88990</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="7">
+        <v>48</v>
+      </c>
+      <c r="D49" s="7">
+        <v>29194</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="7">
+        <v>153</v>
+      </c>
+      <c r="I49" s="7">
+        <v>73464</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" s="7">
+        <v>201</v>
+      </c>
+      <c r="N49" s="7">
+        <v>102658</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7">
+        <v>860</v>
+      </c>
+      <c r="D50" s="7">
+        <v>547740</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1173</v>
+      </c>
+      <c r="I50" s="7">
+        <v>773482</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2033</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1321222</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1026</v>
       </c>
-      <c r="D45" s="7">
-        <v>695966</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>649320</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="7">
         <v>1703</v>
       </c>
-      <c r="I45" s="7">
-        <v>1024150</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>1031889</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="7">
         <v>2729</v>
       </c>
-      <c r="N45" s="7">
-        <v>1720116</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>67</v>
+      <c r="N51" s="7">
+        <v>1681209</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
